--- a/simulation_data/one_step_algorithm/1s_error_level_1_percent_water_20.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_1_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.00364144013024</v>
+        <v>90.00167644538695</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2945365366666236</v>
+        <v>0.3550859251952674</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.01402087509281</v>
+        <v>88.99128189815647</v>
       </c>
       <c r="D3" t="n">
-        <v>0.331335477464671</v>
+        <v>0.3119594848638267</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.97799875189911</v>
+        <v>88.00153152499608</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3406549367562521</v>
+        <v>0.3575377300943614</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.01652430263401</v>
+        <v>87.05595850465477</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3455429284495301</v>
+        <v>0.3746515021336648</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.92797095256971</v>
+        <v>86.011614455337</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3397584811536103</v>
+        <v>0.3722713183834407</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.04700298633672</v>
+        <v>85.04858960503172</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3823472887027081</v>
+        <v>0.3476477032510286</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.99062673124855</v>
+        <v>83.96329884441718</v>
       </c>
       <c r="D8" t="n">
-        <v>0.389554848305174</v>
+        <v>0.3418613488340176</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.02968411531612</v>
+        <v>82.9701309860578</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3829961243466615</v>
+        <v>0.3666420844721376</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.00686984611673</v>
+        <v>82.02982915486059</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3690797705459164</v>
+        <v>0.3365510006340753</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.04318545797733</v>
+        <v>80.93506831808914</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3745680123944428</v>
+        <v>0.3792238603964534</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.96370792275347</v>
+        <v>79.98195589849227</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4287558990616551</v>
+        <v>0.3663609546224186</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.93463325959877</v>
+        <v>78.96871134128554</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3363595534497847</v>
+        <v>0.3443706162707248</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.97716102313163</v>
+        <v>78.04286373032028</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4653014033178952</v>
+        <v>0.3761041804335037</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.06376347947982</v>
+        <v>77.06311975747151</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3625849587639648</v>
+        <v>0.4194225628793082</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.99619880870195</v>
+        <v>75.9871746663292</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3713647013691121</v>
+        <v>0.3996490535524718</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.00885374861633</v>
+        <v>74.96209731394956</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4184155108632502</v>
+        <v>0.4811701868053873</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.06192846524009</v>
+        <v>73.99015045143926</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3750337146228795</v>
+        <v>0.4108167985535964</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.00596311122035</v>
+        <v>73.02601781251056</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4390341349507327</v>
+        <v>0.4389796826727757</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.01913108607175</v>
+        <v>71.99083740618934</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4500011210603491</v>
+        <v>0.4135153848743238</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.05751548749406</v>
+        <v>70.98452086871364</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4078373894346435</v>
+        <v>0.4242856030705929</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.99347923179961</v>
+        <v>69.96331999961484</v>
       </c>
       <c r="D22" t="n">
-        <v>0.414094055370798</v>
+        <v>0.4213300588721606</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.96218233862812</v>
+        <v>69.05178374522062</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4386310251928124</v>
+        <v>0.4111042443398494</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.00144760509129</v>
+        <v>67.9959468475915</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4600186415854478</v>
+        <v>0.4586274549360836</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.97078266319718</v>
+        <v>66.96169272559285</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4498438346868749</v>
+        <v>0.4416417266792823</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.98574073203147</v>
+        <v>65.9795962687858</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4682350835420986</v>
+        <v>0.4752280890162429</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.00630648932678</v>
+        <v>64.99397939856398</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4321300195162833</v>
+        <v>0.446591700916772</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.0184189225898</v>
+        <v>64.01989417420833</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4541125337455517</v>
+        <v>0.4408508737380112</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.98539697476612</v>
+        <v>63.0684159447251</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5075329511106371</v>
+        <v>0.5260845198414407</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.02568804610966</v>
+        <v>62.04630771485375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5788108310996486</v>
+        <v>0.503474701707506</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.95180634243833</v>
+        <v>61.05758986684529</v>
       </c>
       <c r="D31" t="n">
-        <v>0.482896094637992</v>
+        <v>0.499577911491453</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.03681172413742</v>
+        <v>59.94456462892452</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5038130100100943</v>
+        <v>0.5655329547736986</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.00922202408469</v>
+        <v>58.96143023958193</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4953678139715006</v>
+        <v>0.5228777138908975</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.02151352762129</v>
+        <v>57.98627155580228</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5145184198787941</v>
+        <v>0.4688722548273696</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.04041617030411</v>
+        <v>56.98746836916692</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4966896890806394</v>
+        <v>0.5253046396237214</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.02205716428332</v>
+        <v>55.98644420502912</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5128860934015239</v>
+        <v>0.4820574638860016</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.1206202291255</v>
+        <v>55.03024634218893</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4822889202933928</v>
+        <v>0.4434281004525913</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.96090775892639</v>
+        <v>53.98934713246341</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5288658558178246</v>
+        <v>0.5004104321289039</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.04713207132296</v>
+        <v>52.99959073210026</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5356409013669919</v>
+        <v>0.5513919862100947</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.0764425333809</v>
+        <v>51.9923915885562</v>
       </c>
       <c r="D40" t="n">
-        <v>0.529828300974227</v>
+        <v>0.59866959246384</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.04281256306199</v>
+        <v>50.98408052910232</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5578863255970423</v>
+        <v>0.5618961714813525</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.04835740554277</v>
+        <v>50.00297153148045</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5645272622255149</v>
+        <v>0.534018710383271</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.99907936459638</v>
+        <v>48.94111442917514</v>
       </c>
       <c r="D43" t="n">
-        <v>0.562423023832182</v>
+        <v>0.5722696683166847</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.94685046928716</v>
+        <v>48.02926211996285</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4837028024863218</v>
+        <v>0.5838990072025829</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.01455283981203</v>
+        <v>46.95797437986195</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5755228989353597</v>
+        <v>0.5780031427955539</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.05810462513701</v>
+        <v>45.99003904458321</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5752861923963475</v>
+        <v>0.4908675983063796</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.97883069880591</v>
+        <v>44.96331656207789</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5919111854642856</v>
+        <v>0.5731661258819963</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.09232294868909</v>
+        <v>43.87041860874366</v>
       </c>
       <c r="D48" t="n">
-        <v>0.658962971195357</v>
+        <v>0.6831769596638253</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.10003903071411</v>
+        <v>42.97294473018028</v>
       </c>
       <c r="D49" t="n">
-        <v>0.567116315115612</v>
+        <v>0.5376723607542203</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.91684956585711</v>
+        <v>42.06075452268584</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6037392739931939</v>
+        <v>0.5571038622467143</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.94138489938297</v>
+        <v>40.99170477034562</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5416089776268519</v>
+        <v>0.5532876405863932</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.08289060587244</v>
+        <v>40.04390009210722</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6331924163753212</v>
+        <v>0.5971500040594324</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.00712051293905</v>
+        <v>39.05406936389965</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5548853500723706</v>
+        <v>0.590133614225252</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.00152799699383</v>
+        <v>37.99556273896303</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6759135545534891</v>
+        <v>0.6356603641076838</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.9276679066028</v>
+        <v>36.94504862836049</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5734785330201227</v>
+        <v>0.6645139390110334</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.08378399119857</v>
+        <v>35.9252483662887</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6280917171341247</v>
+        <v>0.6013283386181913</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.98632284157188</v>
+        <v>34.93436824690567</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6002334219881356</v>
+        <v>0.6057228795828143</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.05358367027492</v>
+        <v>34.04160808061172</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6407373616329597</v>
+        <v>0.5587591099878705</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.09708025369113</v>
+        <v>32.93286734283537</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6746218941085963</v>
+        <v>0.6736898461702123</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.82773506278271</v>
+        <v>31.96039078000344</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6577098953164593</v>
+        <v>0.7278946471355626</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.95680120664502</v>
+        <v>31.0271075942911</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6313028312327136</v>
+        <v>0.6435300223356684</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.01706230729433</v>
+        <v>29.99330074587971</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6594330408425946</v>
+        <v>0.625176709644668</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.00668080257985</v>
+        <v>28.89748804483929</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6252997400483283</v>
+        <v>0.7093649575578717</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.02576941368848</v>
+        <v>28.04259058482569</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6837772200301864</v>
+        <v>0.6312411268985469</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.05703901839589</v>
+        <v>26.88729094800702</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7150809446394898</v>
+        <v>0.6217117234369812</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.02519201639665</v>
+        <v>25.98162033155712</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6512888717208203</v>
+        <v>0.7317061435490247</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.91502418860578</v>
+        <v>24.78440628589494</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7091406032482793</v>
+        <v>0.6299553451247983</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.97249320837297</v>
+        <v>24.02476066273854</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6964138705500224</v>
+        <v>0.6220297434303063</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.10365730870868</v>
+        <v>23.0444809192239</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6575115448734438</v>
+        <v>0.7438546084693629</v>
       </c>
     </row>
   </sheetData>
